--- a/data/us/20-08-06  world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-08-06  world o meter adjusted covid cases by state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B8888667-D345-45D4-914C-8F73B872097D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F466958-A032-4847-8D9D-84B25F7515EE}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{B8888667-D345-45D4-914C-8F73B872097D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDFFCF19-F1A6-47B6-9595-B653864B6BD6}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="-18240" windowWidth="22605" windowHeight="17175" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="5745" yWindow="-18240" windowWidth="25755" windowHeight="17160" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB61549-E677-4976-9DCA-747A592A5594}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="A5:J59"/>
     </sheetView>
   </sheetViews>
@@ -2974,57 +2974,57 @@
     <mergeCell ref="Q1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{AE6EFF6B-77EF-4926-B9EA-9606F18144CA}"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{AAF81C74-919A-452D-8E57-AC491772E147}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{2642E764-D36D-4D20-AFA5-2D529F93521A}"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/new-york/" xr:uid="{EC871171-D4FE-4B21-8B9B-5AA7549C10DF}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/georgia/" xr:uid="{A303ED80-DC21-4834-BB16-8F93EF00CFD2}"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{FAD51F5E-9B54-4A55-8965-99DE937F6B06}"/>
-    <hyperlink ref="A11" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/illinois/" xr:uid="{CBFF1657-52A2-4659-B0B8-14FF344273D8}"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/arizona/" xr:uid="{8F273CC1-6A1A-4608-9B47-A398635C5989}"/>
-    <hyperlink ref="A13" r:id="rId9" display="https://www.worldometers.info/coronavirus/usa/north-carolina/" xr:uid="{DA930B61-BC27-4356-8D08-7724AEBFE5E9}"/>
-    <hyperlink ref="A14" r:id="rId10" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{679132A2-3C4A-4D91-927A-0ACAD1647B58}"/>
-    <hyperlink ref="A15" r:id="rId11" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{FDC0CEB0-CCAE-4050-B5C1-FA6EF4C8B896}"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://www.worldometers.info/coronavirus/usa/massachusetts/" xr:uid="{79FBF0DD-2B44-48D5-BD32-E14B0E5DF38F}"/>
-    <hyperlink ref="A17" r:id="rId13" display="https://www.worldometers.info/coronavirus/usa/tennessee/" xr:uid="{4C38EE78-5E29-40CC-BDA5-EFD65A2D12EF}"/>
-    <hyperlink ref="A18" r:id="rId14" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{461A5155-1244-41AF-B963-694D5D6ED553}"/>
-    <hyperlink ref="A19" r:id="rId15" display="https://www.worldometers.info/coronavirus/usa/south-carolina/" xr:uid="{F114F82D-AF86-4898-A6D4-F2BB16B67542}"/>
-    <hyperlink ref="A20" r:id="rId16" display="https://www.worldometers.info/coronavirus/usa/virginia/" xr:uid="{CD36F9FE-F5D2-4433-A2B3-8F9A04E2CF2C}"/>
-    <hyperlink ref="A21" r:id="rId17" display="https://www.worldometers.info/coronavirus/usa/alabama/" xr:uid="{60062230-0637-4C2E-8BD8-91ACFC1F62F0}"/>
-    <hyperlink ref="A22" r:id="rId18" display="https://www.worldometers.info/coronavirus/usa/michigan/" xr:uid="{85AB3EB2-8159-4646-8437-BB0694FC6695}"/>
-    <hyperlink ref="A23" r:id="rId19" display="https://www.worldometers.info/coronavirus/usa/maryland/" xr:uid="{85EEE48B-83AC-4655-9655-543F9E2CC994}"/>
-    <hyperlink ref="A24" r:id="rId20" display="https://www.worldometers.info/coronavirus/usa/indiana/" xr:uid="{3B38BAC2-F338-4940-B0A6-2D4C6F60519F}"/>
-    <hyperlink ref="A25" r:id="rId21" display="https://www.worldometers.info/coronavirus/usa/mississippi/" xr:uid="{555074E7-22AC-4C76-A9FB-D0795957F121}"/>
-    <hyperlink ref="A26" r:id="rId22" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{E8F6DD03-4381-48D5-866B-366F793D3DC8}"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://www.worldometers.info/coronavirus/usa/minnesota/" xr:uid="{20A339AC-65DE-445A-9DE9-DB865BBBAD75}"/>
-    <hyperlink ref="A28" r:id="rId24" display="https://www.worldometers.info/coronavirus/usa/wisconsin/" xr:uid="{F181CAB2-555E-46F3-93F8-46EF41CD6EBE}"/>
-    <hyperlink ref="A29" r:id="rId25" display="https://www.worldometers.info/coronavirus/usa/missouri/" xr:uid="{D5EC4243-D01B-412B-AD7B-83772B8657C1}"/>
+    <hyperlink ref="A55" r:id="rId1" display="https://www.worldometers.info/coronavirus/usa/vermont/" xr:uid="{0D53FC72-9EB3-414F-ADDA-31E55027C7E4}"/>
+    <hyperlink ref="A54" r:id="rId2" display="https://www.worldometers.info/coronavirus/usa/hawaii/" xr:uid="{D9793043-58F5-408A-B183-A3C222ED8CAD}"/>
+    <hyperlink ref="A53" r:id="rId3" display="https://www.worldometers.info/coronavirus/usa/wyoming/" xr:uid="{A37599BB-421C-4394-815B-34F7173E1604}"/>
+    <hyperlink ref="A52" r:id="rId4" display="https://www.worldometers.info/coronavirus/usa/alaska/" xr:uid="{19EB672B-FD9B-40E8-A164-F83CC0DEF244}"/>
+    <hyperlink ref="A51" r:id="rId5" display="https://www.worldometers.info/coronavirus/usa/maine/" xr:uid="{CEE7D748-50C7-47CA-99CA-D17A07E20449}"/>
+    <hyperlink ref="A50" r:id="rId6" display="https://www.worldometers.info/coronavirus/usa/montana/" xr:uid="{8EC4145E-CE39-45BD-88F7-342FF1A5F21B}"/>
+    <hyperlink ref="A49" r:id="rId7" display="https://www.worldometers.info/coronavirus/usa/new-hampshire/" xr:uid="{5F32A780-5A6E-4220-ADD2-1DC0416C0526}"/>
+    <hyperlink ref="A48" r:id="rId8" display="https://www.worldometers.info/coronavirus/usa/north-dakota/" xr:uid="{A39E8EB6-42DA-4E41-8D6F-D85B8EE6C679}"/>
+    <hyperlink ref="A47" r:id="rId9" display="https://www.worldometers.info/coronavirus/usa/west-virginia/" xr:uid="{AC3E54CF-188A-413A-B450-A8595F552EFA}"/>
+    <hyperlink ref="A46" r:id="rId10" display="https://www.worldometers.info/coronavirus/usa/south-dakota/" xr:uid="{4048F335-FAD3-4E59-8346-F863898E0681}"/>
+    <hyperlink ref="A45" r:id="rId11" display="https://www.worldometers.info/coronavirus/usa/district-of-columbia/" xr:uid="{89F57481-0449-4FD7-B070-BBA1D64BF6E2}"/>
+    <hyperlink ref="A44" r:id="rId12" display="https://www.worldometers.info/coronavirus/usa/delaware/" xr:uid="{EE8D96AC-2983-43D2-B370-A866EAA3C2D3}"/>
+    <hyperlink ref="A43" r:id="rId13" display="https://www.worldometers.info/coronavirus/usa/rhode-island/" xr:uid="{A0596FA6-73BB-4784-9819-A305F0D59F32}"/>
+    <hyperlink ref="A42" r:id="rId14" display="https://www.worldometers.info/coronavirus/usa/oregon/" xr:uid="{C8F4C67C-0DF1-4460-8A2F-F4A7622A1C67}"/>
+    <hyperlink ref="A41" r:id="rId15" display="https://www.worldometers.info/coronavirus/usa/new-mexico/" xr:uid="{23E24EBE-7D88-4F6F-AD06-2D44139A9132}"/>
+    <hyperlink ref="A40" r:id="rId16" display="https://www.worldometers.info/coronavirus/usa/idaho/" xr:uid="{D6C31146-C3D9-4731-97BD-F7AC9C772D06}"/>
+    <hyperlink ref="A39" r:id="rId17" display="https://www.worldometers.info/coronavirus/usa/nebraska/" xr:uid="{F05CCC1D-ACDA-44B7-9199-B67407079438}"/>
+    <hyperlink ref="A38" r:id="rId18" display="https://www.worldometers.info/coronavirus/usa/kansas/" xr:uid="{C3E2A5BD-C7F7-449B-8AE9-EC45768C6BF9}"/>
+    <hyperlink ref="A37" r:id="rId19" display="https://www.worldometers.info/coronavirus/usa/kentucky/" xr:uid="{8C6798E5-3376-46D7-B069-4B2C21B9D29E}"/>
+    <hyperlink ref="A36" r:id="rId20" display="https://www.worldometers.info/coronavirus/usa/oklahoma/" xr:uid="{9EBE981A-4212-4CC5-A0E5-4265DD43A280}"/>
+    <hyperlink ref="A35" r:id="rId21" display="https://www.worldometers.info/coronavirus/usa/utah/" xr:uid="{909D7858-2679-400B-A890-13225944FCF3}"/>
+    <hyperlink ref="A34" r:id="rId22" display="https://www.worldometers.info/coronavirus/usa/arkansas/" xr:uid="{7BEF9C2B-A329-4637-B54C-BDBAF5F863BC}"/>
+    <hyperlink ref="A33" r:id="rId23" display="https://www.worldometers.info/coronavirus/usa/iowa/" xr:uid="{1C21F8D7-2453-4D2E-8E72-24C2D5359544}"/>
+    <hyperlink ref="A32" r:id="rId24" display="https://www.worldometers.info/coronavirus/usa/colorado/" xr:uid="{742301AB-61EE-4B47-9E30-6FDC6E44FF62}"/>
+    <hyperlink ref="A31" r:id="rId25" display="https://www.worldometers.info/coronavirus/usa/connecticut/" xr:uid="{EF139868-4C85-4EE3-8BA0-2A55047870FE}"/>
     <hyperlink ref="A30" r:id="rId26" display="https://www.worldometers.info/coronavirus/usa/nevada/" xr:uid="{87A531BC-8368-462C-B8C9-212AE180519C}"/>
-    <hyperlink ref="A31" r:id="rId27" display="https://www.worldometers.info/coronavirus/usa/connecticut/" xr:uid="{EF139868-4C85-4EE3-8BA0-2A55047870FE}"/>
-    <hyperlink ref="A32" r:id="rId28" display="https://www.worldometers.info/coronavirus/usa/colorado/" xr:uid="{742301AB-61EE-4B47-9E30-6FDC6E44FF62}"/>
-    <hyperlink ref="A33" r:id="rId29" display="https://www.worldometers.info/coronavirus/usa/iowa/" xr:uid="{1C21F8D7-2453-4D2E-8E72-24C2D5359544}"/>
-    <hyperlink ref="A34" r:id="rId30" display="https://www.worldometers.info/coronavirus/usa/arkansas/" xr:uid="{7BEF9C2B-A329-4637-B54C-BDBAF5F863BC}"/>
-    <hyperlink ref="A35" r:id="rId31" display="https://www.worldometers.info/coronavirus/usa/utah/" xr:uid="{909D7858-2679-400B-A890-13225944FCF3}"/>
-    <hyperlink ref="A36" r:id="rId32" display="https://www.worldometers.info/coronavirus/usa/oklahoma/" xr:uid="{9EBE981A-4212-4CC5-A0E5-4265DD43A280}"/>
-    <hyperlink ref="A37" r:id="rId33" display="https://www.worldometers.info/coronavirus/usa/kentucky/" xr:uid="{8C6798E5-3376-46D7-B069-4B2C21B9D29E}"/>
-    <hyperlink ref="A38" r:id="rId34" display="https://www.worldometers.info/coronavirus/usa/kansas/" xr:uid="{C3E2A5BD-C7F7-449B-8AE9-EC45768C6BF9}"/>
-    <hyperlink ref="A39" r:id="rId35" display="https://www.worldometers.info/coronavirus/usa/nebraska/" xr:uid="{F05CCC1D-ACDA-44B7-9199-B67407079438}"/>
-    <hyperlink ref="A40" r:id="rId36" display="https://www.worldometers.info/coronavirus/usa/idaho/" xr:uid="{D6C31146-C3D9-4731-97BD-F7AC9C772D06}"/>
-    <hyperlink ref="A41" r:id="rId37" display="https://www.worldometers.info/coronavirus/usa/new-mexico/" xr:uid="{23E24EBE-7D88-4F6F-AD06-2D44139A9132}"/>
-    <hyperlink ref="A42" r:id="rId38" display="https://www.worldometers.info/coronavirus/usa/oregon/" xr:uid="{C8F4C67C-0DF1-4460-8A2F-F4A7622A1C67}"/>
-    <hyperlink ref="A43" r:id="rId39" display="https://www.worldometers.info/coronavirus/usa/rhode-island/" xr:uid="{A0596FA6-73BB-4784-9819-A305F0D59F32}"/>
-    <hyperlink ref="A44" r:id="rId40" display="https://www.worldometers.info/coronavirus/usa/delaware/" xr:uid="{EE8D96AC-2983-43D2-B370-A866EAA3C2D3}"/>
-    <hyperlink ref="A45" r:id="rId41" display="https://www.worldometers.info/coronavirus/usa/district-of-columbia/" xr:uid="{89F57481-0449-4FD7-B070-BBA1D64BF6E2}"/>
-    <hyperlink ref="A46" r:id="rId42" display="https://www.worldometers.info/coronavirus/usa/south-dakota/" xr:uid="{4048F335-FAD3-4E59-8346-F863898E0681}"/>
-    <hyperlink ref="A47" r:id="rId43" display="https://www.worldometers.info/coronavirus/usa/west-virginia/" xr:uid="{AC3E54CF-188A-413A-B450-A8595F552EFA}"/>
-    <hyperlink ref="A48" r:id="rId44" display="https://www.worldometers.info/coronavirus/usa/north-dakota/" xr:uid="{A39E8EB6-42DA-4E41-8D6F-D85B8EE6C679}"/>
-    <hyperlink ref="A49" r:id="rId45" display="https://www.worldometers.info/coronavirus/usa/new-hampshire/" xr:uid="{5F32A780-5A6E-4220-ADD2-1DC0416C0526}"/>
-    <hyperlink ref="A50" r:id="rId46" display="https://www.worldometers.info/coronavirus/usa/montana/" xr:uid="{8EC4145E-CE39-45BD-88F7-342FF1A5F21B}"/>
-    <hyperlink ref="A51" r:id="rId47" display="https://www.worldometers.info/coronavirus/usa/maine/" xr:uid="{CEE7D748-50C7-47CA-99CA-D17A07E20449}"/>
-    <hyperlink ref="A52" r:id="rId48" display="https://www.worldometers.info/coronavirus/usa/alaska/" xr:uid="{19EB672B-FD9B-40E8-A164-F83CC0DEF244}"/>
-    <hyperlink ref="A53" r:id="rId49" display="https://www.worldometers.info/coronavirus/usa/wyoming/" xr:uid="{A37599BB-421C-4394-815B-34F7173E1604}"/>
-    <hyperlink ref="A54" r:id="rId50" display="https://www.worldometers.info/coronavirus/usa/hawaii/" xr:uid="{D9793043-58F5-408A-B183-A3C222ED8CAD}"/>
-    <hyperlink ref="A55" r:id="rId51" display="https://www.worldometers.info/coronavirus/usa/vermont/" xr:uid="{0D53FC72-9EB3-414F-ADDA-31E55027C7E4}"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://www.worldometers.info/coronavirus/usa/missouri/" xr:uid="{D5EC4243-D01B-412B-AD7B-83772B8657C1}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://www.worldometers.info/coronavirus/usa/wisconsin/" xr:uid="{F181CAB2-555E-46F3-93F8-46EF41CD6EBE}"/>
+    <hyperlink ref="A27" r:id="rId29" display="https://www.worldometers.info/coronavirus/usa/minnesota/" xr:uid="{20A339AC-65DE-445A-9DE9-DB865BBBAD75}"/>
+    <hyperlink ref="A26" r:id="rId30" display="https://www.worldometers.info/coronavirus/usa/washington/" xr:uid="{E8F6DD03-4381-48D5-866B-366F793D3DC8}"/>
+    <hyperlink ref="A25" r:id="rId31" display="https://www.worldometers.info/coronavirus/usa/mississippi/" xr:uid="{555074E7-22AC-4C76-A9FB-D0795957F121}"/>
+    <hyperlink ref="A24" r:id="rId32" display="https://www.worldometers.info/coronavirus/usa/indiana/" xr:uid="{3B38BAC2-F338-4940-B0A6-2D4C6F60519F}"/>
+    <hyperlink ref="A23" r:id="rId33" display="https://www.worldometers.info/coronavirus/usa/maryland/" xr:uid="{85EEE48B-83AC-4655-9655-543F9E2CC994}"/>
+    <hyperlink ref="A22" r:id="rId34" display="https://www.worldometers.info/coronavirus/usa/michigan/" xr:uid="{85AB3EB2-8159-4646-8437-BB0694FC6695}"/>
+    <hyperlink ref="A21" r:id="rId35" display="https://www.worldometers.info/coronavirus/usa/alabama/" xr:uid="{60062230-0637-4C2E-8BD8-91ACFC1F62F0}"/>
+    <hyperlink ref="A20" r:id="rId36" display="https://www.worldometers.info/coronavirus/usa/virginia/" xr:uid="{CD36F9FE-F5D2-4433-A2B3-8F9A04E2CF2C}"/>
+    <hyperlink ref="A19" r:id="rId37" display="https://www.worldometers.info/coronavirus/usa/south-carolina/" xr:uid="{F114F82D-AF86-4898-A6D4-F2BB16B67542}"/>
+    <hyperlink ref="A18" r:id="rId38" display="https://www.worldometers.info/coronavirus/usa/ohio/" xr:uid="{461A5155-1244-41AF-B963-694D5D6ED553}"/>
+    <hyperlink ref="A17" r:id="rId39" display="https://www.worldometers.info/coronavirus/usa/tennessee/" xr:uid="{4C38EE78-5E29-40CC-BDA5-EFD65A2D12EF}"/>
+    <hyperlink ref="A16" r:id="rId40" display="https://www.worldometers.info/coronavirus/usa/massachusetts/" xr:uid="{79FBF0DD-2B44-48D5-BD32-E14B0E5DF38F}"/>
+    <hyperlink ref="A15" r:id="rId41" display="https://www.worldometers.info/coronavirus/usa/pennsylvania/" xr:uid="{FDC0CEB0-CCAE-4050-B5C1-FA6EF4C8B896}"/>
+    <hyperlink ref="A14" r:id="rId42" display="https://www.worldometers.info/coronavirus/usa/louisiana/" xr:uid="{679132A2-3C4A-4D91-927A-0ACAD1647B58}"/>
+    <hyperlink ref="A13" r:id="rId43" display="https://www.worldometers.info/coronavirus/usa/north-carolina/" xr:uid="{DA930B61-BC27-4356-8D08-7724AEBFE5E9}"/>
+    <hyperlink ref="A12" r:id="rId44" display="https://www.worldometers.info/coronavirus/usa/arizona/" xr:uid="{8F273CC1-6A1A-4608-9B47-A398635C5989}"/>
+    <hyperlink ref="A11" r:id="rId45" display="https://www.worldometers.info/coronavirus/usa/illinois/" xr:uid="{CBFF1657-52A2-4659-B0B8-14FF344273D8}"/>
+    <hyperlink ref="A10" r:id="rId46" display="https://www.worldometers.info/coronavirus/usa/new-jersey/" xr:uid="{FAD51F5E-9B54-4A55-8965-99DE937F6B06}"/>
+    <hyperlink ref="A9" r:id="rId47" display="https://www.worldometers.info/coronavirus/usa/georgia/" xr:uid="{A303ED80-DC21-4834-BB16-8F93EF00CFD2}"/>
+    <hyperlink ref="A8" r:id="rId48" display="https://www.worldometers.info/coronavirus/usa/new-york/" xr:uid="{EC871171-D4FE-4B21-8B9B-5AA7549C10DF}"/>
+    <hyperlink ref="A7" r:id="rId49" display="https://www.worldometers.info/coronavirus/usa/texas/" xr:uid="{2642E764-D36D-4D20-AFA5-2D529F93521A}"/>
+    <hyperlink ref="A6" r:id="rId50" display="https://www.worldometers.info/coronavirus/usa/florida/" xr:uid="{AAF81C74-919A-452D-8E57-AC491772E147}"/>
+    <hyperlink ref="A5" r:id="rId51" display="https://www.worldometers.info/coronavirus/usa/california/" xr:uid="{AE6EFF6B-77EF-4926-B9EA-9606F18144CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId52"/>
@@ -3131,15 +3131,15 @@
       </c>
       <c r="K2" s="35"/>
       <c r="L2" s="41">
-        <f>IFERROR(B2/I2,0)</f>
+        <f t="shared" ref="L2:L33" si="0">IFERROR(B2/I2,0)</f>
         <v>0.13063255780574179</v>
       </c>
       <c r="M2" s="42">
-        <f>IFERROR(H2/G2,0)</f>
+        <f t="shared" ref="M2:M33" si="1">IFERROR(H2/G2,0)</f>
         <v>1.7922817922817923E-2</v>
       </c>
       <c r="N2" s="40">
-        <f>D2*250</f>
+        <f t="shared" ref="N2:N33" si="2">D2*250</f>
         <v>423750</v>
       </c>
       <c r="O2" s="43">
@@ -3176,19 +3176,19 @@
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="41">
-        <f>IFERROR(B3/I3,0)</f>
+        <f t="shared" si="0"/>
         <v>1.3405680214864019E-2</v>
       </c>
       <c r="M3" s="42">
-        <f>IFERROR(H3/G3,0)</f>
+        <f t="shared" si="1"/>
         <v>7.2110286320254506E-3</v>
       </c>
       <c r="N3" s="40">
-        <f>D3*250</f>
+        <f t="shared" si="2"/>
         <v>6250</v>
       </c>
       <c r="O3" s="43">
-        <f t="shared" ref="O3:O56" si="0">ABS(N3-B3)/B3</f>
+        <f t="shared" ref="O3:O56" si="3">ABS(N3-B3)/B3</f>
         <v>0.81211945491446791</v>
       </c>
     </row>
@@ -3221,19 +3221,19 @@
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="41">
-        <f>IFERROR(B4/I4,0)</f>
+        <f t="shared" si="0"/>
         <v>0.14958986615129347</v>
       </c>
       <c r="M4" s="42">
-        <f>IFERROR(H4/G4,0)</f>
+        <f t="shared" si="1"/>
         <v>2.1572387344199424E-2</v>
       </c>
       <c r="N4" s="40">
-        <f>D4*250</f>
+        <f t="shared" si="2"/>
         <v>983000</v>
       </c>
       <c r="O4" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3950813104065247</v>
       </c>
     </row>
@@ -3266,19 +3266,19 @@
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="41">
-        <f>IFERROR(B5/I5,0)</f>
+        <f t="shared" si="0"/>
         <v>8.5870736652315621E-2</v>
       </c>
       <c r="M5" s="42">
-        <f>IFERROR(H5/G5,0)</f>
+        <f t="shared" si="1"/>
         <v>1.0951760104302478E-2</v>
       </c>
       <c r="N5" s="40">
-        <f>D5*250</f>
+        <f t="shared" si="2"/>
         <v>127000</v>
       </c>
       <c r="O5" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.743395329747478</v>
       </c>
     </row>
@@ -3311,19 +3311,19 @@
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="41">
-        <f>IFERROR(B6/I6,0)</f>
+        <f t="shared" si="0"/>
         <v>6.335113087735153E-2</v>
       </c>
       <c r="M6" s="42">
-        <f>IFERROR(H6/G6,0)</f>
+        <f t="shared" si="1"/>
         <v>1.8541867536898318E-2</v>
       </c>
       <c r="N6" s="40">
-        <f>D6*250</f>
+        <f t="shared" si="2"/>
         <v>2468000</v>
       </c>
       <c r="O6" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6326103482904579</v>
       </c>
     </row>
@@ -3356,19 +3356,19 @@
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="41">
-        <f>IFERROR(B7/I7,0)</f>
+        <f t="shared" si="0"/>
         <v>8.7153923065153738E-2</v>
       </c>
       <c r="M7" s="42">
-        <f>IFERROR(H7/G7,0)</f>
+        <f t="shared" si="1"/>
         <v>3.7733631127306926E-2</v>
       </c>
       <c r="N7" s="40">
-        <f>D7*250</f>
+        <f t="shared" si="2"/>
         <v>462750</v>
       </c>
       <c r="O7" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.4461909038948306</v>
       </c>
     </row>
@@ -3401,19 +3401,19 @@
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="41">
-        <f>IFERROR(B8/I8,0)</f>
+        <f t="shared" si="0"/>
         <v>5.9357649188906826E-2</v>
       </c>
       <c r="M8" s="42">
-        <f>IFERROR(H8/G8,0)</f>
+        <f t="shared" si="1"/>
         <v>8.8379356853836868E-2</v>
       </c>
       <c r="N8" s="40">
-        <f>D8*250</f>
+        <f t="shared" si="2"/>
         <v>1109250</v>
       </c>
       <c r="O8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21.085614733698357</v>
       </c>
     </row>
@@ -3446,19 +3446,19 @@
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="41">
-        <f>IFERROR(B9/I9,0)</f>
+        <f t="shared" si="0"/>
         <v>8.0209753539590978E-2</v>
       </c>
       <c r="M9" s="42">
-        <f>IFERROR(H9/G9,0)</f>
+        <f t="shared" si="1"/>
         <v>3.8388082505729566E-2</v>
       </c>
       <c r="N9" s="40">
-        <f>D9*250</f>
+        <f t="shared" si="2"/>
         <v>146750</v>
       </c>
       <c r="O9" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.59401150627615</v>
       </c>
     </row>
@@ -3491,19 +3491,19 @@
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="41">
-        <f>IFERROR(B10/I10,0)</f>
+        <f t="shared" si="0"/>
         <v>6.1348453099963021E-2</v>
       </c>
       <c r="M10" s="42">
-        <f>IFERROR(H10/G10,0)</f>
+        <f t="shared" si="1"/>
         <v>4.7189609211048721E-2</v>
       </c>
       <c r="N10" s="40">
-        <f>D10*250</f>
+        <f t="shared" si="2"/>
         <v>146750</v>
       </c>
       <c r="O10" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.793779635136222</v>
       </c>
     </row>
@@ -3536,19 +3536,19 @@
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="41">
-        <f>IFERROR(B11/I11,0)</f>
+        <f t="shared" si="0"/>
         <v>0.13158354147674645</v>
       </c>
       <c r="M11" s="42">
-        <f>IFERROR(H11/G11,0)</f>
+        <f t="shared" si="1"/>
         <v>1.5166403212714145E-2</v>
       </c>
       <c r="N11" s="40">
-        <f>D11*250</f>
+        <f t="shared" si="2"/>
         <v>1906750</v>
       </c>
       <c r="O11" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.7927234608812923</v>
       </c>
     </row>
@@ -3581,19 +3581,19 @@
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="41">
-        <f>IFERROR(B12/I12,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1046746111150319</v>
       </c>
       <c r="M12" s="42">
-        <f>IFERROR(H12/G12,0)</f>
+        <f t="shared" si="1"/>
         <v>1.9738919886303823E-2</v>
       </c>
       <c r="N12" s="40">
-        <f>D12*250</f>
+        <f t="shared" si="2"/>
         <v>996000</v>
       </c>
       <c r="O12" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9377085264707778</v>
       </c>
     </row>
@@ -3620,19 +3620,19 @@
       <c r="J13" s="2"/>
       <c r="K13" s="34"/>
       <c r="L13" s="41">
-        <f>IFERROR(B13/I13,0)</f>
+        <f t="shared" si="0"/>
         <v>1.6501930174352013E-2</v>
       </c>
       <c r="M13" s="42">
-        <f>IFERROR(H13/G13,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="40">
-        <f>D13*250</f>
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="O13" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2133676092544987</v>
       </c>
     </row>
@@ -3665,19 +3665,19 @@
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="41">
-        <f>IFERROR(B14/I14,0)</f>
+        <f t="shared" si="0"/>
         <v>1.6405220220636257E-2</v>
       </c>
       <c r="M14" s="42">
-        <f>IFERROR(H14/G14,0)</f>
+        <f t="shared" si="1"/>
         <v>9.7385955920041012E-3</v>
       </c>
       <c r="N14" s="40">
-        <f>D14*250</f>
+        <f t="shared" si="2"/>
         <v>6750</v>
       </c>
       <c r="O14" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4429967426710097</v>
       </c>
     </row>
@@ -3710,19 +3710,19 @@
       </c>
       <c r="K15" s="35"/>
       <c r="L15" s="41">
-        <f>IFERROR(B15/I15,0)</f>
+        <f t="shared" si="0"/>
         <v>0.11755904614970437</v>
       </c>
       <c r="M15" s="42">
-        <f>IFERROR(H15/G15,0)</f>
+        <f t="shared" si="1"/>
         <v>9.5230599716669296E-3</v>
       </c>
       <c r="N15" s="40">
-        <f>D15*250</f>
+        <f t="shared" si="2"/>
         <v>54250</v>
       </c>
       <c r="O15" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3891311049456114</v>
       </c>
     </row>
@@ -3755,19 +3755,19 @@
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="41">
-        <f>IFERROR(B16/I16,0)</f>
+        <f t="shared" si="0"/>
         <v>6.483008138980402E-2</v>
       </c>
       <c r="M16" s="42">
-        <f>IFERROR(H16/G16,0)</f>
+        <f t="shared" si="1"/>
         <v>4.1374190064794814E-2</v>
       </c>
       <c r="N16" s="40">
-        <f>D16*250</f>
+        <f t="shared" si="2"/>
         <v>1942500</v>
       </c>
       <c r="O16" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.3460948485235846</v>
       </c>
     </row>
@@ -3800,19 +3800,19 @@
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="41">
-        <f>IFERROR(B17/I17,0)</f>
+        <f t="shared" si="0"/>
         <v>7.0845980484071175E-2</v>
       </c>
       <c r="M17" s="42">
-        <f>IFERROR(H17/G17,0)</f>
+        <f t="shared" si="1"/>
         <v>4.3005580142389838E-2</v>
       </c>
       <c r="N17" s="40">
-        <f>D17*250</f>
+        <f t="shared" si="2"/>
         <v>751750</v>
       </c>
       <c r="O17" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.7431225437656312</v>
       </c>
     </row>
@@ -3849,19 +3849,19 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="41">
-        <f>IFERROR(B18/I18,0)</f>
+        <f t="shared" si="0"/>
         <v>9.3383577075295834E-2</v>
       </c>
       <c r="M18" s="42">
-        <f>IFERROR(H18/G18,0)</f>
+        <f t="shared" si="1"/>
         <v>1.9333108790838667E-2</v>
       </c>
       <c r="N18" s="40">
-        <f>D18*250</f>
+        <f t="shared" si="2"/>
         <v>226500</v>
       </c>
       <c r="O18" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.8359203194055982</v>
       </c>
     </row>
@@ -3896,19 +3896,19 @@
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="41">
-        <f>IFERROR(B19/I19,0)</f>
+        <f t="shared" si="0"/>
         <v>9.7159867581417342E-2</v>
       </c>
       <c r="M19" s="42">
-        <f>IFERROR(H19/G19,0)</f>
+        <f t="shared" si="1"/>
         <v>1.2334887334887334E-2</v>
       </c>
       <c r="N19" s="40">
-        <f>D19*250</f>
+        <f t="shared" si="2"/>
         <v>92750</v>
       </c>
       <c r="O19" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.0921820303383898</v>
       </c>
     </row>
@@ -3941,19 +3941,19 @@
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="41">
-        <f>IFERROR(B20/I20,0)</f>
+        <f t="shared" si="0"/>
         <v>4.937565977982205E-2</v>
       </c>
       <c r="M20" s="42">
-        <f>IFERROR(H20/G20,0)</f>
+        <f t="shared" si="1"/>
         <v>2.2925764192139739E-2</v>
       </c>
       <c r="N20" s="40">
-        <f>D20*250</f>
+        <f t="shared" si="2"/>
         <v>188000</v>
       </c>
       <c r="O20" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7420359793531048</v>
       </c>
     </row>
@@ -3986,19 +3986,19 @@
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="41">
-        <f>IFERROR(B21/I21,0)</f>
+        <f t="shared" si="0"/>
         <v>8.5683262499260143E-2</v>
       </c>
       <c r="M21" s="42">
-        <f>IFERROR(H21/G21,0)</f>
+        <f t="shared" si="1"/>
         <v>3.2518824745312272E-2</v>
       </c>
       <c r="N21" s="40">
-        <f>D21*250</f>
+        <f t="shared" si="2"/>
         <v>1024250</v>
       </c>
       <c r="O21" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.1326473087031435</v>
       </c>
     </row>
@@ -4031,19 +4031,19 @@
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="41">
-        <f>IFERROR(B22/I22,0)</f>
+        <f t="shared" si="0"/>
         <v>2.1373539001889996E-2</v>
       </c>
       <c r="M22" s="42">
-        <f>IFERROR(H22/G22,0)</f>
+        <f t="shared" si="1"/>
         <v>3.0976430976430977E-2</v>
       </c>
       <c r="N22" s="40">
-        <f>D22*250</f>
+        <f t="shared" si="2"/>
         <v>31000</v>
       </c>
       <c r="O22" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.7655310621242482</v>
       </c>
     </row>
@@ -4076,19 +4076,19 @@
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="41">
-        <f>IFERROR(B23/I23,0)</f>
+        <f t="shared" si="0"/>
         <v>6.9379461199341533E-2</v>
       </c>
       <c r="M23" s="42">
-        <f>IFERROR(H23/G23,0)</f>
+        <f t="shared" si="1"/>
         <v>3.826530612244898E-2</v>
       </c>
       <c r="N23" s="40">
-        <f>D23*250</f>
+        <f t="shared" si="2"/>
         <v>884000</v>
       </c>
       <c r="O23" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.5644082833834627</v>
       </c>
     </row>
@@ -4121,19 +4121,19 @@
       </c>
       <c r="K24" s="45"/>
       <c r="L24" s="41">
-        <f>IFERROR(B24/I24,0)</f>
+        <f t="shared" si="0"/>
         <v>8.8592157524813184E-2</v>
       </c>
       <c r="M24" s="42">
-        <f>IFERROR(H24/G24,0)</f>
+        <f t="shared" si="1"/>
         <v>7.2358566655144604E-2</v>
       </c>
       <c r="N24" s="40">
-        <f>D24*250</f>
+        <f t="shared" si="2"/>
         <v>2164750</v>
       </c>
       <c r="O24" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.093411231747783</v>
       </c>
     </row>
@@ -4166,19 +4166,19 @@
       </c>
       <c r="K25" s="34"/>
       <c r="L25" s="41">
-        <f>IFERROR(B25/I25,0)</f>
+        <f t="shared" si="0"/>
         <v>4.2151493616423341E-2</v>
       </c>
       <c r="M25" s="42">
-        <f>IFERROR(H25/G25,0)</f>
+        <f t="shared" si="1"/>
         <v>6.9027866411401823E-2</v>
       </c>
       <c r="N25" s="40">
-        <f>D25*250</f>
+        <f t="shared" si="2"/>
         <v>1619500</v>
       </c>
       <c r="O25" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.248357172526173</v>
       </c>
     </row>
@@ -4211,19 +4211,19 @@
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="41">
-        <f>IFERROR(B26/I26,0)</f>
+        <f t="shared" si="0"/>
         <v>5.2993525652960692E-2</v>
       </c>
       <c r="M26" s="42">
-        <f>IFERROR(H26/G26,0)</f>
+        <f t="shared" si="1"/>
         <v>2.889214250854075E-2</v>
       </c>
       <c r="N26" s="40">
-        <f>D26*250</f>
+        <f t="shared" si="2"/>
         <v>417500</v>
       </c>
       <c r="O26" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2258086848162826</v>
       </c>
     </row>
@@ -4256,19 +4256,19 @@
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="41">
-        <f>IFERROR(B27/I27,0)</f>
+        <f t="shared" si="0"/>
         <v>0.1284868908699861</v>
       </c>
       <c r="M27" s="42">
-        <f>IFERROR(H27/G27,0)</f>
+        <f t="shared" si="1"/>
         <v>2.842801519913684E-2</v>
       </c>
       <c r="N27" s="40">
-        <f>D27*250</f>
+        <f t="shared" si="2"/>
         <v>451000</v>
       </c>
       <c r="O27" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.1086312338440196</v>
       </c>
     </row>
@@ -4301,19 +4301,19 @@
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="41">
-        <f>IFERROR(B28/I28,0)</f>
+        <f t="shared" si="0"/>
         <v>7.0633459404336629E-2</v>
       </c>
       <c r="M28" s="42">
-        <f>IFERROR(H28/G28,0)</f>
+        <f t="shared" si="1"/>
         <v>2.4047436038212366E-2</v>
       </c>
       <c r="N28" s="40">
-        <f>D28*250</f>
+        <f t="shared" si="2"/>
         <v>336250</v>
       </c>
       <c r="O28" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.0156361814798913</v>
       </c>
     </row>
@@ -4346,19 +4346,19 @@
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="41">
-        <f>IFERROR(B29/I29,0)</f>
+        <f t="shared" si="0"/>
         <v>2.4185797601625127E-2</v>
       </c>
       <c r="M29" s="42">
-        <f>IFERROR(H29/G29,0)</f>
+        <f t="shared" si="1"/>
         <v>1.472007722007722E-2</v>
       </c>
       <c r="N29" s="40">
-        <f>D29*250</f>
+        <f t="shared" si="2"/>
         <v>16250</v>
       </c>
       <c r="O29" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.6689997742153984</v>
       </c>
     </row>
@@ -4391,19 +4391,19 @@
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="41">
-        <f>IFERROR(B30/I30,0)</f>
+        <f t="shared" si="0"/>
         <v>9.4633998560987614E-2</v>
       </c>
       <c r="M30" s="42">
-        <f>IFERROR(H30/G30,0)</f>
+        <f t="shared" si="1"/>
         <v>1.2173668285131237E-2</v>
       </c>
       <c r="N30" s="40">
-        <f>D30*250</f>
+        <f t="shared" si="2"/>
         <v>83750</v>
       </c>
       <c r="O30" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.0466732147404416</v>
       </c>
     </row>
@@ -4436,19 +4436,19 @@
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="41">
-        <f>IFERROR(B31/I31,0)</f>
+        <f t="shared" si="0"/>
         <v>8.1196272484288082E-2</v>
       </c>
       <c r="M31" s="42">
-        <f>IFERROR(H31/G31,0)</f>
+        <f t="shared" si="1"/>
         <v>1.6850329426855576E-2</v>
       </c>
       <c r="N31" s="40">
-        <f>D31*250</f>
+        <f t="shared" si="2"/>
         <v>222500</v>
       </c>
       <c r="O31" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2117816309532823</v>
       </c>
     </row>
@@ -4481,19 +4481,19 @@
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="41">
-        <f>IFERROR(B32/I32,0)</f>
+        <f t="shared" si="0"/>
         <v>3.447178997809279E-2</v>
       </c>
       <c r="M32" s="42">
-        <f>IFERROR(H32/G32,0)</f>
+        <f t="shared" si="1"/>
         <v>6.2133171422788909E-2</v>
       </c>
       <c r="N32" s="40">
-        <f>D32*250</f>
+        <f t="shared" si="2"/>
         <v>104500</v>
       </c>
       <c r="O32" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.552909659175473</v>
       </c>
     </row>
@@ -4526,19 +4526,19 @@
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="41">
-        <f>IFERROR(B33/I33,0)</f>
+        <f t="shared" si="0"/>
         <v>8.6491286308571766E-2</v>
       </c>
       <c r="M33" s="42">
-        <f>IFERROR(H33/G33,0)</f>
+        <f t="shared" si="1"/>
         <v>8.414725770097671E-2</v>
       </c>
       <c r="N33" s="40">
-        <f>D33*250</f>
+        <f t="shared" si="2"/>
         <v>3979000</v>
       </c>
       <c r="O33" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20.035324966430181</v>
       </c>
     </row>
@@ -4571,19 +4571,19 @@
       </c>
       <c r="K34" s="34"/>
       <c r="L34" s="41">
-        <f>IFERROR(B34/I34,0)</f>
+        <f t="shared" ref="L34:L56" si="4">IFERROR(B34/I34,0)</f>
         <v>3.6099282232578071E-2</v>
       </c>
       <c r="M34" s="42">
-        <f>IFERROR(H34/G34,0)</f>
+        <f t="shared" ref="M34:M56" si="5">IFERROR(H34/G34,0)</f>
         <v>3.0918813806514341E-2</v>
       </c>
       <c r="N34" s="40">
-        <f>D34*250</f>
+        <f t="shared" ref="N34:N56" si="6">D34*250</f>
         <v>166750</v>
       </c>
       <c r="O34" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.732078271353056</v>
       </c>
     </row>
@@ -4616,19 +4616,19 @@
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="41">
-        <f>IFERROR(B35/I35,0)</f>
+        <f t="shared" si="4"/>
         <v>7.1851549080653693E-2</v>
       </c>
       <c r="M35" s="42">
-        <f>IFERROR(H35/G35,0)</f>
+        <f t="shared" si="5"/>
         <v>7.3357394442753396E-2</v>
       </c>
       <c r="N35" s="40">
-        <f>D35*250</f>
+        <f t="shared" si="6"/>
         <v>8202750</v>
       </c>
       <c r="O35" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.335125251744046</v>
       </c>
     </row>
@@ -4661,19 +4661,19 @@
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="41">
-        <f>IFERROR(B36/I36,0)</f>
+        <f t="shared" si="4"/>
         <v>6.9272144264618918E-2</v>
       </c>
       <c r="M36" s="42">
-        <f>IFERROR(H36/G36,0)</f>
+        <f t="shared" si="5"/>
         <v>1.591919191919192E-2</v>
       </c>
       <c r="N36" s="40">
-        <f>D36*250</f>
+        <f t="shared" si="6"/>
         <v>517750</v>
       </c>
       <c r="O36" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9890440932870033</v>
       </c>
     </row>
@@ -4706,19 +4706,19 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="41">
-        <f>IFERROR(B37/I37,0)</f>
+        <f t="shared" si="4"/>
         <v>4.3557964126556964E-2</v>
       </c>
       <c r="M37" s="42">
-        <f>IFERROR(H37/G37,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5334773218142549E-2</v>
       </c>
       <c r="N37" s="40">
-        <f>D37*250</f>
+        <f t="shared" si="6"/>
         <v>27000</v>
       </c>
       <c r="O37" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8259883803315855</v>
       </c>
     </row>
@@ -4745,19 +4745,19 @@
       <c r="J38" s="2"/>
       <c r="K38" s="35"/>
       <c r="L38" s="41">
-        <f>IFERROR(B38/I38,0)</f>
+        <f t="shared" si="4"/>
         <v>3.1902351064567584E-3</v>
       </c>
       <c r="M38" s="42">
-        <f>IFERROR(H38/G38,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N38" s="40">
-        <f>D38*250</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="O38" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8695652173913047</v>
       </c>
     </row>
@@ -4790,19 +4790,19 @@
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="41">
-        <f>IFERROR(B39/I39,0)</f>
+        <f t="shared" si="4"/>
         <v>6.1373869927536462E-2</v>
       </c>
       <c r="M39" s="42">
-        <f>IFERROR(H39/G39,0)</f>
+        <f t="shared" si="5"/>
         <v>3.7374105084334426E-2</v>
       </c>
       <c r="N39" s="40">
-        <f>D39*250</f>
+        <f t="shared" si="6"/>
         <v>901250</v>
       </c>
       <c r="O39" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.3563457046457312</v>
       </c>
     </row>
@@ -4835,19 +4835,19 @@
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="41">
-        <f>IFERROR(B40/I40,0)</f>
+        <f t="shared" si="4"/>
         <v>5.9491264915347702E-2</v>
       </c>
       <c r="M40" s="42">
-        <f>IFERROR(H40/G40,0)</f>
+        <f t="shared" si="5"/>
         <v>1.434006438396254E-2</v>
       </c>
       <c r="N40" s="40">
-        <f>D40*250</f>
+        <f t="shared" si="6"/>
         <v>145750</v>
       </c>
       <c r="O40" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5930874667192585</v>
       </c>
     </row>
@@ -4880,19 +4880,19 @@
       </c>
       <c r="K41" s="35"/>
       <c r="L41" s="41">
-        <f>IFERROR(B41/I41,0)</f>
+        <f t="shared" si="4"/>
         <v>4.6925608149211172E-2</v>
       </c>
       <c r="M41" s="42">
-        <f>IFERROR(H41/G41,0)</f>
+        <f t="shared" si="5"/>
         <v>1.6888325944690731E-2</v>
       </c>
       <c r="N41" s="40">
-        <f>D41*250</f>
+        <f t="shared" si="6"/>
         <v>84500</v>
       </c>
       <c r="O41" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2294409129586064</v>
       </c>
     </row>
@@ -4925,19 +4925,19 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="41">
-        <f>IFERROR(B42/I42,0)</f>
+        <f t="shared" si="4"/>
         <v>9.4026171444891934E-2</v>
       </c>
       <c r="M42" s="42">
-        <f>IFERROR(H42/G42,0)</f>
+        <f t="shared" si="5"/>
         <v>6.0879728006799833E-2</v>
       </c>
       <c r="N42" s="40">
-        <f>D42*250</f>
+        <f t="shared" si="6"/>
         <v>1833750</v>
       </c>
       <c r="O42" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.218852703913953</v>
       </c>
     </row>
@@ -4974,19 +4974,19 @@
       </c>
       <c r="K43" s="35"/>
       <c r="L43" s="41">
-        <f>IFERROR(B43/I43,0)</f>
+        <f t="shared" si="4"/>
         <v>4.295444897677736E-2</v>
       </c>
       <c r="M43" s="42">
-        <f>IFERROR(H43/G43,0)</f>
+        <f t="shared" si="5"/>
         <v>1.2911994563370711E-2</v>
       </c>
       <c r="N43" s="40">
-        <f>D43*250</f>
+        <f t="shared" si="6"/>
         <v>64500</v>
       </c>
       <c r="O43" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2356777365305507</v>
       </c>
     </row>
@@ -5019,19 +5019,19 @@
       </c>
       <c r="K44" s="34"/>
       <c r="L44" s="41">
-        <f>IFERROR(B44/I44,0)</f>
+        <f t="shared" si="4"/>
         <v>5.0612883279380204E-2</v>
       </c>
       <c r="M44" s="42">
-        <f>IFERROR(H44/G44,0)</f>
+        <f t="shared" si="5"/>
         <v>5.1933220947305452E-2</v>
       </c>
       <c r="N44" s="40">
-        <f>D44*250</f>
+        <f t="shared" si="6"/>
         <v>253000</v>
       </c>
       <c r="O44" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.987012987012987</v>
       </c>
     </row>
@@ -5064,19 +5064,19 @@
       </c>
       <c r="K45" s="35"/>
       <c r="L45" s="41">
-        <f>IFERROR(B45/I45,0)</f>
+        <f t="shared" si="4"/>
         <v>0.11871747523921437</v>
       </c>
       <c r="M45" s="42">
-        <f>IFERROR(H45/G45,0)</f>
+        <f t="shared" si="5"/>
         <v>1.9845763900124037E-2</v>
       </c>
       <c r="N45" s="40">
-        <f>D45*250</f>
+        <f t="shared" si="6"/>
         <v>473500</v>
       </c>
       <c r="O45" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9595692978045918</v>
       </c>
     </row>
@@ -5109,19 +5109,19 @@
       </c>
       <c r="K46" s="35"/>
       <c r="L46" s="41">
-        <f>IFERROR(B46/I46,0)</f>
+        <f t="shared" si="4"/>
         <v>7.8780483613178201E-2</v>
       </c>
       <c r="M46" s="42">
-        <f>IFERROR(H46/G46,0)</f>
+        <f t="shared" si="5"/>
         <v>1.495705876676638E-2</v>
       </c>
       <c r="N46" s="40">
-        <f>D46*250</f>
+        <f t="shared" si="6"/>
         <v>34250</v>
       </c>
       <c r="O46" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.7358202443280977</v>
       </c>
     </row>
@@ -5154,19 +5154,19 @@
       </c>
       <c r="K47" s="35"/>
       <c r="L47" s="41">
-        <f>IFERROR(B47/I47,0)</f>
+        <f t="shared" si="4"/>
         <v>7.0841746326222962E-2</v>
       </c>
       <c r="M47" s="42">
-        <f>IFERROR(H47/G47,0)</f>
+        <f t="shared" si="5"/>
         <v>1.0055665289998204E-2</v>
       </c>
       <c r="N47" s="40">
-        <f>D47*250</f>
+        <f t="shared" si="6"/>
         <v>286000</v>
       </c>
       <c r="O47" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5066171186173289</v>
       </c>
     </row>
@@ -5199,19 +5199,19 @@
       </c>
       <c r="K48" s="35"/>
       <c r="L48" s="41">
-        <f>IFERROR(B48/I48,0)</f>
+        <f t="shared" si="4"/>
         <v>0.11420597636431559</v>
       </c>
       <c r="M48" s="42">
-        <f>IFERROR(H48/G48,0)</f>
+        <f t="shared" si="5"/>
         <v>1.6358934263547242E-2</v>
       </c>
       <c r="N48" s="40">
-        <f>D48*250</f>
+        <f t="shared" si="6"/>
         <v>1970000</v>
       </c>
       <c r="O48" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.0862806756260617</v>
       </c>
     </row>
@@ -5238,19 +5238,19 @@
       <c r="J49" s="49"/>
       <c r="K49" s="35"/>
       <c r="L49" s="41">
-        <f>IFERROR(B49/I49,0)</f>
+        <f t="shared" si="4"/>
         <v>4.7487412380294206E-2</v>
       </c>
       <c r="M49" s="42">
-        <f>IFERROR(H49/G49,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N49" s="40">
-        <f>D49*250</f>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="O49" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.1580041580041578</v>
       </c>
     </row>
@@ -5283,19 +5283,19 @@
       </c>
       <c r="K50" s="35"/>
       <c r="L50" s="41">
-        <f>IFERROR(B50/I50,0)</f>
+        <f t="shared" si="4"/>
         <v>6.407964236026481E-2</v>
       </c>
       <c r="M50" s="42">
-        <f>IFERROR(H50/G50,0)</f>
+        <f t="shared" si="5"/>
         <v>7.7255169279709154E-3</v>
       </c>
       <c r="N50" s="40">
-        <f>D50*250</f>
+        <f t="shared" si="6"/>
         <v>81750</v>
       </c>
       <c r="O50" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.9313456813456813</v>
       </c>
     </row>
@@ -5328,19 +5328,19 @@
       </c>
       <c r="K51" s="34"/>
       <c r="L51" s="41">
-        <f>IFERROR(B51/I51,0)</f>
+        <f t="shared" si="4"/>
         <v>1.4506515809677746E-2</v>
       </c>
       <c r="M51" s="42">
-        <f>IFERROR(H51/G51,0)</f>
+        <f t="shared" si="5"/>
         <v>3.954802259887006E-2</v>
       </c>
       <c r="N51" s="40">
-        <f>D51*250</f>
+        <f t="shared" si="6"/>
         <v>14250</v>
       </c>
       <c r="O51" s="43">
-        <f t="shared" ref="O51" si="1">ABS(N51-B51)/B51</f>
+        <f t="shared" ref="O51" si="7">ABS(N51-B51)/B51</f>
         <v>8.9233983286908085</v>
       </c>
     </row>
@@ -5373,19 +5373,19 @@
       </c>
       <c r="K52" s="35"/>
       <c r="L52" s="41">
-        <f>IFERROR(B52/I52,0)</f>
+        <f t="shared" si="4"/>
         <v>7.407554616190333E-2</v>
       </c>
       <c r="M52" s="42">
-        <f>IFERROR(H52/G52,0)</f>
+        <f t="shared" si="5"/>
         <v>2.3886494252873564E-2</v>
       </c>
       <c r="N52" s="40">
-        <f>D52*250</f>
+        <f t="shared" si="6"/>
         <v>568500</v>
       </c>
       <c r="O52" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.9811255247293502</v>
       </c>
     </row>
@@ -5418,19 +5418,19 @@
       </c>
       <c r="K53" s="35"/>
       <c r="L53" s="41">
-        <f>IFERROR(B53/I53,0)</f>
+        <f t="shared" si="4"/>
         <v>6.122604537161784E-2</v>
       </c>
       <c r="M53" s="42">
-        <f>IFERROR(H53/G53,0)</f>
+        <f t="shared" si="5"/>
         <v>2.6348190100960355E-2</v>
       </c>
       <c r="N53" s="40">
-        <f>D53*250</f>
+        <f t="shared" si="6"/>
         <v>407250</v>
       </c>
       <c r="O53" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5844785772029102</v>
       </c>
     </row>
@@ -5463,19 +5463,19 @@
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="41">
-        <f>IFERROR(B54/I54,0)</f>
+        <f t="shared" si="4"/>
         <v>2.3670575943235586E-2</v>
       </c>
       <c r="M54" s="42">
-        <f>IFERROR(H54/G54,0)</f>
+        <f t="shared" si="5"/>
         <v>1.7271589486858575E-2</v>
       </c>
       <c r="N54" s="40">
-        <f>D54*250</f>
+        <f t="shared" si="6"/>
         <v>31000</v>
       </c>
       <c r="O54" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.3302137169995811</v>
       </c>
     </row>
@@ -5508,19 +5508,19 @@
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="41">
-        <f>IFERROR(B55/I55,0)</f>
+        <f t="shared" si="4"/>
         <v>5.6830657814365158E-2</v>
       </c>
       <c r="M55" s="42">
-        <f>IFERROR(H55/G55,0)</f>
+        <f t="shared" si="5"/>
         <v>1.7077410778198181E-2</v>
       </c>
       <c r="N55" s="40">
-        <f>D55*250</f>
+        <f t="shared" si="6"/>
         <v>242500</v>
       </c>
       <c r="O55" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2588689848963823</v>
       </c>
     </row>
@@ -5553,19 +5553,19 @@
       </c>
       <c r="K56" s="56"/>
       <c r="L56" s="41">
-        <f>IFERROR(B56/I56,0)</f>
+        <f t="shared" si="4"/>
         <v>3.5829860259867612E-2</v>
       </c>
       <c r="M56" s="42">
-        <f>IFERROR(H56/G56,0)</f>
+        <f t="shared" si="5"/>
         <v>9.3069306930693065E-3</v>
       </c>
       <c r="N56" s="40">
-        <f>D56*250</f>
+        <f t="shared" si="6"/>
         <v>6750</v>
       </c>
       <c r="O56" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3092712966130688</v>
       </c>
     </row>
@@ -6344,7 +6344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
